--- a/data/trans_bre/P7_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,24</t>
+          <t>-0,2; 10,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 3,91</t>
+          <t>-5,52; 4,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 6,84</t>
+          <t>-2,41; 6,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,02</t>
+          <t>-4,42; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 104,28</t>
+          <t>-1,85; 103,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 47,39</t>
+          <t>-42,75; 59,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 113,88</t>
+          <t>-26,59; 114,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 34,72</t>
+          <t>-27,15; 39,22</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 9,5</t>
+          <t>-0,21; 9,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 8,31</t>
+          <t>-1,75; 7,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,86</t>
+          <t>-2,63; 7,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,61</t>
+          <t>-2,46; 5,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 110,32</t>
+          <t>-1,48; 110,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 96,28</t>
+          <t>-14,03; 85,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 74,16</t>
+          <t>-18,99; 80,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 55,15</t>
+          <t>-16,64; 54,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 19,82</t>
+          <t>4,15; 19,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 9,31</t>
+          <t>-4,08; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 18,36</t>
+          <t>2,47; 19,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 27,23</t>
+          <t>4,36; 28,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,27; 134,22</t>
+          <t>25,11; 138,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 44,87</t>
+          <t>-17,33; 46,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 116,59</t>
+          <t>12,12; 119,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,05; 509,25</t>
+          <t>19,61; 480,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 9,06</t>
+          <t>1,65; 8,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 5,74</t>
+          <t>-2,32; 5,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,93</t>
+          <t>-2,73; 4,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -0,21</t>
+          <t>-14,71; -0,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 51,52</t>
+          <t>8,08; 50,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 30,02</t>
+          <t>-10,84; 33,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 28,9</t>
+          <t>-13,35; 26,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,03; -1,21</t>
+          <t>-63,61; -0,76</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 16,0</t>
+          <t>3,95; 16,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 22,63</t>
+          <t>12,95; 22,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 14,56</t>
+          <t>4,59; 14,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 12,85</t>
+          <t>-1,45; 12,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 80,43</t>
+          <t>13,8; 86,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,45; 142,66</t>
+          <t>59,14; 143,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,16; 76,47</t>
+          <t>19,01; 71,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 64,08</t>
+          <t>-4,97; 60,82</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,59; 35,37</t>
+          <t>28,33; 35,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,7; 31,31</t>
+          <t>22,62; 31,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,72; 29,56</t>
+          <t>22,05; 29,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,72; 30,47</t>
+          <t>23,65; 30,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>442,62; 1584,01</t>
+          <t>434,35; 1652,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>250,19; 1133,99</t>
+          <t>230,55; 1147,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>420,9; 2025,19</t>
+          <t>396,81; 1941,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>422,42; 1805,66</t>
+          <t>421,28; 2122,15</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,02</t>
+          <t>11,23; 15,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,87</t>
+          <t>7,93; 11,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,97</t>
+          <t>6,14; 10,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 9,49</t>
+          <t>2,15; 9,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,68; 102,7</t>
+          <t>67,91; 104,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,19; 77,0</t>
+          <t>44,49; 75,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,77; 66,85</t>
+          <t>37,08; 68,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,97; 67,74</t>
+          <t>12,99; 72,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
